--- a/biology/Médecine/Edward_Albert_Sharpey-Schafer/Edward_Albert_Sharpey-Schafer.xlsx
+++ b/biology/Médecine/Edward_Albert_Sharpey-Schafer/Edward_Albert_Sharpey-Schafer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir Edward Albert Sharpey-Schafer (né le 2 juin 1850 à Hornsey, Middlesex, mort le 29 mars 1935 à North Berwick, East Lothian en Écosse) est un physiologiste anglais. Il est considéré comme l'un des fondateurs de l'endocrinologie.
 En 1894, il découvrit et démontrait l'existence de l'adrénaline avec George Oliver (en) et il inventa également le concept du système endocrinien pour désigner les sécrétions des glandes sans canaux. Schafer a inventé le mot insuline après avoir émis la théorie « qu'une seule substance du pancréas était responsable du diabète sucré. » En 1903, il invente une nouvelle méthode de ventilation artificielle par pression sur le ventre, qui deviendra la méthode de Schafer.
@@ -514,20 +526,60 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie privée
-Il est né sous le nom d'Edward Albert Schäfer, à Hornsey, à Londres, et était le troisième fils de James William Henry Schäfer, un commerçant né à Hambourg, naturalisé anglais après être venu en Angleterre dans sa jeunesse. Sa mère, Jessie Brown, était anglaise. La famille vivait à Highgate, dans le nord-ouest de Londres.
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né sous le nom d'Edward Albert Schäfer, à Hornsey, à Londres, et était le troisième fils de James William Henry Schäfer, un commerçant né à Hambourg, naturalisé anglais après être venu en Angleterre dans sa jeunesse. Sa mère, Jessie Brown, était anglaise. La famille vivait à Highgate, dans le nord-ouest de Londres.
 Il s'est marié une première fois en 1878 avec Maud Dixey jusqu' à sa mort en 1896, puis une deuxième fois avec Ethel Maud Roberts. Il a eu quatre enfants lors de son premier mariage, cependant, il en a survécu trois: sa fille aînée est décédée en 1905 et ses deux fils sont morts au combat pendant la Première Guerre mondiale.
-Il décide de modifier son nom de famille en rajoutant Sharpey après la mort de son fils ainé, John Sharpey Schafer, en 1918. Cette modification est motivé par le fait que son nom Schafer était allemand et, à la sortie de la Première Guerre mondiale, tous les noms germaniques étaient regardé avec suspicion et hostilité[2]. Ce prénom Sharpey avait été initialement attribué à son fils en mémoire du nom de son professeur, William Sharpey.
-Carrière
-Edward a fait ses études à la Clewer House School. À partir de 1868, il étudia la médecine à l'University College de Londres, où il fut formé par le physiologiste William Sharpey[2].
-En 1874, il est nommé professeur adjoint de physiologie pratique à l'University College de Londres quand son mento, William Sharpey démissionna[2]. 
-En 1878, il est élu membre de la Royal Society, alors qu'il n'avait que 28 ans. Il était professeur fullérien à la Royal Institution et devint professeur Jodrell à l'UCL en 1883, poste qu'il occupa jusqu'en 1899, date à laquelle il fut nommé à la chaire de physiologie de l'université d'Édimbourg (en remplacement de William Rutherford[3]), où il demeura jusqu'à sa retraite en 1933 et son poste de professeur émérite par la suite.
+Il décide de modifier son nom de famille en rajoutant Sharpey après la mort de son fils ainé, John Sharpey Schafer, en 1918. Cette modification est motivé par le fait que son nom Schafer était allemand et, à la sortie de la Première Guerre mondiale, tous les noms germaniques étaient regardé avec suspicion et hostilité. Ce prénom Sharpey avait été initialement attribué à son fils en mémoire du nom de son professeur, William Sharpey.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Edward_Albert_Sharpey-Schafer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edward_Albert_Sharpey-Schafer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edward a fait ses études à la Clewer House School. À partir de 1868, il étudia la médecine à l'University College de Londres, où il fut formé par le physiologiste William Sharpey.
+En 1874, il est nommé professeur adjoint de physiologie pratique à l'University College de Londres quand son mento, William Sharpey démissionna. 
+En 1878, il est élu membre de la Royal Society, alors qu'il n'avait que 28 ans. Il était professeur fullérien à la Royal Institution et devint professeur Jodrell à l'UCL en 1883, poste qu'il occupa jusqu'en 1899, date à laquelle il fut nommé à la chaire de physiologie de l'université d'Édimbourg (en remplacement de William Rutherford), où il demeura jusqu'à sa retraite en 1933 et son poste de professeur émérite par la suite.
 Entre 1885 et 1900, il est devenu le secrétaire général de la British Science Association. 
 En 1900, il fut élu membre de la Royal Society of Edinburgh. Ses proposeurs étaient Sir William Turner, Alexander Crum Brown, Sir John Murray et Alexander Buchan. Il a été vice-président de la Société de 1913 à 1917 et président de 1929 à 1934. Il a remporté le prix Neill de la Société de 1919 à 1921.
 En 1902, il chargea l'architecte écossais Robert Lorimer de concevoir Marly Knowe, une importante villa d'artisanat située dans la ville côtière de North Berwick, à l'est d'Édimbourg.
 Schafer était un membre fondateur de la Société de physiologie et, de 1908 à 1933, il a publié le Quarterly Journal of Experimental Physiology. Il a reçu de nombreux diplômes honorifiques et des médailles prestigieuses tant chez lui qu'à l'étranger. Son livre sur les bases de l'histologie a été publié à seize éditions entre 1885 et 1954. Il a introduit l'extrait surrénal (contenant de l'adrénaline ainsi que d'autres substances actives) en médecine.
-Schafer est devenu président de la British Science Association de 1911 à 1912. En tant que président, il se fait remarquer après un discours qui attire l'attention, dans lequel il proclame que la vie n'est pas dû à une force spirituelle quelconque, mais plutôt grâce aux lois de la physique et de la chimie[2].
-Il devient président de la British Medical Association pour l'année 1912. À sa mort en 1935, il aura été membre de l'association pendant 55 années[2].
+Schafer est devenu président de la British Science Association de 1911 à 1912. En tant que président, il se fait remarquer après un discours qui attire l'attention, dans lequel il proclame que la vie n'est pas dû à une force spirituelle quelconque, mais plutôt grâce aux lois de la physique et de la chimie.
+Il devient président de la British Medical Association pour l'année 1912. À sa mort en 1935, il aura été membre de l'association pendant 55 années.
 Il fut fait chevalier par le roi George V en 1913.
 En 1923, il est élu président du Congrès international de physiologie.
 Il mourut chez lui à North Berwick le 29 mars 1935.
@@ -535,31 +587,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Edward_Albert_Sharpey-Schafer</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Edward_Albert_Sharpey-Schafer</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus d'un nombre important d'articles sur la structure musculaire, sur la chimie des protéines du sang, sur l'absorption et sur le rythme de la contraction volontaire, il a écrit :
 A Course of Practical Histology (1877)
@@ -571,34 +625,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Edward_Albert_Sharpey-Schafer</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Edward_Albert_Sharpey-Schafer</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Doctorat honoris causa
-Il obtient un doctorat honoris causa dans de nombreuses universités[2] : 
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Doctorat honoris causa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il obtient un doctorat honoris causa dans de nombreuses universités : 
  : université d'Oxford, université de Cambridge
  : université d'Aberdeen, université de St Andrews
  : University College Dublin, université nationale d'Irlande
@@ -606,14 +665,82 @@
  : université de Melbourne
  : université de Berne
  : université de Groningue
- : université de Louvain
-Prix
-1897 : médaille Baly (en) du Collège royal de médecine
+ : université de Louvain</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Edward_Albert_Sharpey-Schafer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edward_Albert_Sharpey-Schafer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1897 : médaille Baly (en) du Collège royal de médecine
 1902 : médaille royale de la Royal Society
-1911 : prix Cyen de l'Académie des sciences de l'institut de Bologne[2]
-1924 : médaille Copley, pour son travail remarquable dans le domaine de la physiologie et l'histologie, et la position qu'il occupe actuellement en tant que leader dans ces sciences.
-Honneurs
-1874 : Fellow de la Royal Society
+1911 : prix Cyen de l'Académie des sciences de l'institut de Bologne
+1924 : médaille Copley, pour son travail remarquable dans le domaine de la physiologie et l'histologie, et la position qu'il occupe actuellement en tant que leader dans ces sciences.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Edward_Albert_Sharpey-Schafer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edward_Albert_Sharpey-Schafer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1874 : Fellow de la Royal Society
 1900 : Fellow de la Royal Society of Edinburgh
 1909 : Croonian Lecture</t>
         </is>
